--- a/Dataset/Production-Data/Production-Unit-Data.xlsx
+++ b/Dataset/Production-Data/Production-Unit-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anant\My Drive\DOS-LU\DOSLU-SAS-IOP\Dataset\Production-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA4AA7-3BEA-419D-B85E-CF8F71736610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B6116-06B6-4D6D-A2DB-2959316DCA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{641083DF-B6E4-4AEC-8F1D-8638EDD286FF}"/>
   </bookViews>
@@ -445,8 +445,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1170</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1910</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>830</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45078</v>
+        <v>44927</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1730</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>1800</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>1560</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>1980</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>520</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>1900</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1730</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>800</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>960</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>990</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,13 +665,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>1570</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>1640</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,13 +693,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>670</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>660</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>1630</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,13 +749,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>1440</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,13 +763,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>640</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>45078</v>
+        <v>44958</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>1550</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>1480</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,13 +805,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>1890</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,13 +819,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>790</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,13 +833,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>740</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,13 +875,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>1300</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>950</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,13 +903,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>670</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>1150</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>1840</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="D37">
-        <v>1180</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>740</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>1840</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>670</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="1">
-        <v>45078</v>
+        <v>44927</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>1790</v>
+        <v>950</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,13 +1029,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="1">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>910</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>1180</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1057,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="1">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>1020</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="1">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>1480</v>
+        <v>940</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,13 +1085,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>780</v>
+        <v>910</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="1">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>950</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>1750</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>970</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>700</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>760</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>940</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>1900</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,13 +1239,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>1050</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="1">
-        <v>45078</v>
+        <v>44958</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>1140</v>
+        <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="1">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>1630</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>950</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,13 +1323,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>1400</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>720</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,13 +1351,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>1530</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>590</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,13 +1379,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>1280</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,13 +1393,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="1">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>1810</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,13 +1407,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>1090</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,13 +1421,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>1560</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="D71">
-        <v>970</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>520</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,13 +1463,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>1790</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,13 +1477,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D75">
-        <v>1020</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D76">
-        <v>1320</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>1400</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>1240</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,13 +1547,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>720</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>1670</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,13 +1603,13 @@
         <v>6</v>
       </c>
       <c r="B83" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>1960</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="B85" s="1">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>1470</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="B86" s="1">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>1740</v>
+        <v>870</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,13 +1659,13 @@
         <v>2</v>
       </c>
       <c r="B87" s="1">
-        <v>45078</v>
+        <v>44927</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>1660</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="B88" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>1210</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,13 +1687,13 @@
         <v>2</v>
       </c>
       <c r="B89" s="1">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>1190</v>
+        <v>810</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,13 +1701,13 @@
         <v>2</v>
       </c>
       <c r="B90" s="1">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>1230</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,13 +1715,13 @@
         <v>2</v>
       </c>
       <c r="B91" s="1">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>1350</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="B92" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>600</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,13 +1743,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>1660</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,13 +1757,13 @@
         <v>2</v>
       </c>
       <c r="B94" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>870</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,13 +1771,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="1">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>1550</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="1">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>970</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,13 +1799,13 @@
         <v>2</v>
       </c>
       <c r="B97" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>1160</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,13 +1813,13 @@
         <v>2</v>
       </c>
       <c r="B98" s="1">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>810</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>700</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,13 +1841,13 @@
         <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>1430</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
